--- a/Outputs/data.xlsx
+++ b/Outputs/data.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12750" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="InsertChart" sheetId="4" r:id="rId1"/>
-    <sheet name="SearchChart" sheetId="5" r:id="rId2"/>
-    <sheet name="DeleteChart" sheetId="7" r:id="rId3"/>
+    <sheet name="DeleteChart" sheetId="7" r:id="rId2"/>
+    <sheet name="SearchChart" sheetId="8" r:id="rId3"/>
     <sheet name="Insert" sheetId="1" r:id="rId4"/>
     <sheet name="Search" sheetId="2" r:id="rId5"/>
     <sheet name="Delete" sheetId="3" r:id="rId6"/>
@@ -183,8 +183,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -203,7 +203,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -212,7 +212,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Insert!$A$2:$A$51</c:f>
               <c:numCache>
@@ -370,166 +370,166 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Insert!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2.7060300599999997E-2</c:v>
+                  <c:v>1.37780096E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8813133199999997E-2</c:v>
+                  <c:v>2.5735029999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1029467996</c:v>
+                  <c:v>5.29675706E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1173946438</c:v>
+                  <c:v>5.82415778E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13880606379999999</c:v>
+                  <c:v>6.9173203799999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20931543499999999</c:v>
+                  <c:v>0.13697332679999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22327754599999999</c:v>
+                  <c:v>0.11723903920000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26405193919999997</c:v>
+                  <c:v>0.14901148480000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30742663840000001</c:v>
+                  <c:v>0.1625387274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31152594020000002</c:v>
+                  <c:v>0.17354464080000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43626531039999994</c:v>
+                  <c:v>0.24081433720000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42771110800000001</c:v>
+                  <c:v>0.2102132722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46866799940000003</c:v>
+                  <c:v>0.23469969760000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4874879406</c:v>
+                  <c:v>0.26105493219999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.52210108379999998</c:v>
+                  <c:v>0.30290750560000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.56618247560000001</c:v>
+                  <c:v>0.27277252639999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57804447059999997</c:v>
+                  <c:v>0.2827906912</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.63634029479999998</c:v>
+                  <c:v>0.29277729600000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.69115305699999996</c:v>
+                  <c:v>0.30044751759999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.66389195339999607</c:v>
+                  <c:v>0.33926399899999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.69486180400000008</c:v>
+                  <c:v>0.3321959028</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.86385736479999997</c:v>
+                  <c:v>0.51693536399999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88920712359999998</c:v>
+                  <c:v>0.41315259780000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94536890780000005</c:v>
+                  <c:v>0.52209565099999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0083364958000001</c:v>
+                  <c:v>0.54138878599999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.077441954</c:v>
+                  <c:v>0.53085562919999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0667681308000001</c:v>
+                  <c:v>0.60448352940000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0794556966</c:v>
+                  <c:v>0.65733907359999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.137745888</c:v>
+                  <c:v>0.50099962360000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2254866434</c:v>
+                  <c:v>0.68915093400000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2800879817999999</c:v>
+                  <c:v>0.65130067960000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3758754228000001</c:v>
+                  <c:v>0.60084901319999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2624586637999999</c:v>
+                  <c:v>0.59100094140000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2800964654</c:v>
+                  <c:v>0.63656232779999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4452071704</c:v>
+                  <c:v>0.60861633520000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4699812240000001</c:v>
+                  <c:v>0.62442013799999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7514504209999999</c:v>
+                  <c:v>0.64083929100000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.9972727202000002</c:v>
+                  <c:v>0.72346284299999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.5609947212000002</c:v>
+                  <c:v>0.71458129500000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.3749345935999999</c:v>
+                  <c:v>0.72212595239999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8889139166</c:v>
+                  <c:v>0.71336506219999996</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.9613905705999961</c:v>
+                  <c:v>0.76674330680000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.3996395071999959</c:v>
+                  <c:v>1.1351774591999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.840205477</c:v>
+                  <c:v>0.89426790420000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.7068800484</c:v>
+                  <c:v>0.86939694980000004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.7455595671999959</c:v>
+                  <c:v>0.89311515299999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5912129881999997</c:v>
+                  <c:v>1.0101899736</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.6584210694000001</c:v>
+                  <c:v>0.9306107548</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.7463696214</c:v>
+                  <c:v>1.0272953869999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.7870586448000001</c:v>
+                  <c:v>0.99374261679999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -558,7 +558,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Insert!$A$2:$A$51</c:f>
               <c:numCache>
@@ -716,8 +716,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Insert!$C$2:$C$51</c:f>
               <c:numCache>
@@ -875,7 +875,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -904,7 +904,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Insert!$A$2:$A$51</c:f>
               <c:numCache>
@@ -1062,8 +1062,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Insert!$D$2:$D$51</c:f>
               <c:numCache>
@@ -1221,7 +1221,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1250,7 +1250,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Insert!$A$2:$A$51</c:f>
               <c:numCache>
@@ -1408,8 +1408,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Insert!$E$2:$E$51</c:f>
               <c:numCache>
@@ -1567,7 +1567,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1596,7 +1596,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Insert!$A$2:$A$51</c:f>
               <c:numCache>
@@ -1754,8 +1754,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Insert!$F$2:$F$51</c:f>
               <c:numCache>
@@ -1913,7 +1913,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1942,7 +1942,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Insert!$A$2:$A$51</c:f>
               <c:numCache>
@@ -2100,8 +2100,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Insert!$G$2:$G$51</c:f>
               <c:numCache>
@@ -2259,7 +2259,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -2279,9 +2279,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2290,7 +2288,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Insert!$A$2:$A$51</c:f>
               <c:numCache>
@@ -2448,8 +2446,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Insert!$H$2:$H$51</c:f>
               <c:numCache>
@@ -2607,7 +2605,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -2618,14 +2616,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-45537728"/>
-        <c:axId val="-45536640"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-45537728"/>
+        <c:axId val="-95788640"/>
+        <c:axId val="-401294928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-95788640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2722,15 +2720,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-45536640"/>
+        <c:crossAx val="-401294928"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-45536640"/>
+        <c:axId val="-401294928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,9 +2837,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-45537728"/>
+        <c:crossAx val="-95788640"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2953,7 +2948,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Search Benchmarks</a:t>
+              <a:t>Delete Benchmark</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2991,15 +2986,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Search!$B$1</c:f>
+              <c:f>Delete!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3011,7 +3006,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3020,9 +3015,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Search!$A$2:$A$51</c:f>
+              <c:f>Delete!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3178,166 +3173,166 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Search!$B$2:$B$51</c:f>
+              <c:f>Delete!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2.2890110000000001E-3</c:v>
+                  <c:v>4.5770715999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4208383000000004E-3</c:v>
+                  <c:v>9.1585052E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4584353099999999E-2</c:v>
+                  <c:v>1.7931882400000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.63837397E-2</c:v>
+                  <c:v>2.5435996799999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2391823999999901E-2</c:v>
+                  <c:v>3.3609331999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0561182499999999E-2</c:v>
+                  <c:v>4.2819967E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9833500299999999E-2</c:v>
+                  <c:v>5.9837661799999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5320678899999999E-2</c:v>
+                  <c:v>5.2397966999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.83178103E-2</c:v>
+                  <c:v>6.9659636400000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.00958918E-2</c:v>
+                  <c:v>7.0679798799999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1008527599999996E-2</c:v>
+                  <c:v>9.6266851799999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4805778999999994E-2</c:v>
+                  <c:v>8.8256021800000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7208662799999997E-2</c:v>
+                  <c:v>8.9419928999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2497634199999999E-2</c:v>
+                  <c:v>0.106610968</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1399192199999906E-2</c:v>
+                  <c:v>0.1235142388</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.6144457199999904E-2</c:v>
+                  <c:v>0.106770162</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.5229357300000003E-2</c:v>
+                  <c:v>0.1170343838</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0197483699999997E-2</c:v>
+                  <c:v>0.1242737426</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1054238425</c:v>
+                  <c:v>0.132093614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.101751841599999</c:v>
+                  <c:v>0.140123792</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.111283507299999</c:v>
+                  <c:v>0.14802702200000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.15269049609999999</c:v>
+                  <c:v>0.18773665519999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1408797286</c:v>
+                  <c:v>0.19207277619999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1330930793</c:v>
+                  <c:v>0.1884001002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11264066070000001</c:v>
+                  <c:v>0.1867225018</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.13618964210000001</c:v>
+                  <c:v>0.20032769819999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.130362332</c:v>
+                  <c:v>0.243072013</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1311499059</c:v>
+                  <c:v>0.20787637580000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.14698059920000001</c:v>
+                  <c:v>0.20076489380000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.15350563110000001</c:v>
+                  <c:v>0.24398057840000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.15781506679999999</c:v>
+                  <c:v>0.30910384140000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1732448459</c:v>
+                  <c:v>0.2237285148</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.16657456449999999</c:v>
+                  <c:v>0.23408722979999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.17823065760000001</c:v>
+                  <c:v>0.24507746580000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.19368046729999999</c:v>
+                  <c:v>0.24850781319999901</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.201418077</c:v>
+                  <c:v>0.25800294559999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25692288899999999</c:v>
+                  <c:v>0.28115583360000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29434579379999998</c:v>
+                  <c:v>0.29857258959999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.38177026739999997</c:v>
+                  <c:v>0.301151314</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.35447891770000001</c:v>
+                  <c:v>0.316777906</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2899466758</c:v>
+                  <c:v>0.31478474880000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.29862427390000001</c:v>
+                  <c:v>0.34318557959999901</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.36220167289999999</c:v>
+                  <c:v>0.50488663519999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.47300544830000002</c:v>
+                  <c:v>0.38424968339999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.51416430030000004</c:v>
+                  <c:v>0.38533105480000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.44365942929999902</c:v>
+                  <c:v>0.36325889280000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.40959322190000003</c:v>
+                  <c:v>0.41570792400000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.40663054869999998</c:v>
+                  <c:v>0.38312306559999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.39072093000000002</c:v>
+                  <c:v>0.41751885</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.32926529809999999</c:v>
+                  <c:v>0.35566536840000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -3345,7 +3340,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Search!$C$1</c:f>
+              <c:f>Delete!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3366,9 +3361,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Search!$A$2:$A$51</c:f>
+              <c:f>Delete!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3524,166 +3519,166 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Search!$C$2:$C$51</c:f>
+              <c:f>Delete!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>3.8385990000000002E-2</c:v>
+                  <c:v>3.9117182E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9773444000000003E-2</c:v>
+                  <c:v>9.9217380999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.172882431</c:v>
+                  <c:v>0.14795504800000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22528696500000001</c:v>
+                  <c:v>0.25061326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28039560200000002</c:v>
+                  <c:v>0.281883253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41991780899999998</c:v>
+                  <c:v>0.39836488799999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45649140900000001</c:v>
+                  <c:v>0.44329283400000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50235220800000002</c:v>
+                  <c:v>0.51154147500000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.574251442</c:v>
+                  <c:v>0.61277800199999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.734727935</c:v>
+                  <c:v>0.71761708000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76752314300000002</c:v>
+                  <c:v>0.79879013200000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.82283842100000004</c:v>
+                  <c:v>0.84974328099999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92740351899999995</c:v>
+                  <c:v>1.010577149</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99206715099999998</c:v>
+                  <c:v>0.99092607600000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0420504129999999</c:v>
+                  <c:v>1.0929623740000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1075049880000001</c:v>
+                  <c:v>1.169063336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.220506753</c:v>
+                  <c:v>1.2166485709999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2663653180000001</c:v>
+                  <c:v>1.2863202010000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.33314018</c:v>
+                  <c:v>1.3903118699999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4270815610000001</c:v>
+                  <c:v>1.5233610209999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.980421955</c:v>
+                  <c:v>1.9295676239999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7193733920000001</c:v>
+                  <c:v>1.791648567</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4723350180000001</c:v>
+                  <c:v>1.523563389</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5138967169999999</c:v>
+                  <c:v>1.5631717899999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.665511988</c:v>
+                  <c:v>1.7067639489999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.801099276</c:v>
+                  <c:v>1.9184034240000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.844903306</c:v>
+                  <c:v>1.924736438</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9039993129999999</c:v>
+                  <c:v>2.0027750979999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0431097739999999</c:v>
+                  <c:v>2.0990506849999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1397257989999998</c:v>
+                  <c:v>2.2389227489999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2043222560000002</c:v>
+                  <c:v>2.2187284919999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.244364622</c:v>
+                  <c:v>2.334216917</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3167069389999999</c:v>
+                  <c:v>2.4145201539999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.4623977720000001</c:v>
+                  <c:v>2.5280007279999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.5848329190000001</c:v>
+                  <c:v>2.6135826670000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.744039436</c:v>
+                  <c:v>2.7562869019999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.8745230190000002</c:v>
+                  <c:v>2.9215757450000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.8683985750000001</c:v>
+                  <c:v>2.8856869949999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9024941850000001</c:v>
+                  <c:v>3.02340886</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.0243879539999998</c:v>
+                  <c:v>3.0442399390000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0780696189999999</c:v>
+                  <c:v>3.2292408890000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.2435350359999999</c:v>
+                  <c:v>3.4731942010000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.257445583</c:v>
+                  <c:v>3.3881765929999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.42082145</c:v>
+                  <c:v>3.5042865339999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.5814098670000001</c:v>
+                  <c:v>4.0053298350000004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.549985661</c:v>
+                  <c:v>3.609645225</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.6268859170000001</c:v>
+                  <c:v>3.791508098</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.0434248679999998</c:v>
+                  <c:v>4.0724365970000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.8211296529999998</c:v>
+                  <c:v>3.9952341570000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.0777813470000002</c:v>
+                  <c:v>4.1766372570000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -3691,7 +3686,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Search!$D$1</c:f>
+              <c:f>Delete!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3712,9 +3707,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Search!$A$2:$A$51</c:f>
+              <c:f>Delete!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3870,166 +3865,166 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Search!$D$2:$D$51</c:f>
+              <c:f>Delete!$D$2:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4.7458743999999997E-2</c:v>
+                  <c:v>3.5826462000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13196638199999999</c:v>
+                  <c:v>8.9617971000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22822484700000001</c:v>
+                  <c:v>0.15317492999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34029010799999998</c:v>
+                  <c:v>0.20655536199999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46136881699999999</c:v>
+                  <c:v>0.26205890199999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59342194400000003</c:v>
+                  <c:v>0.32081497199999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76573316899999999</c:v>
+                  <c:v>0.41575547699999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87840929599999995</c:v>
+                  <c:v>0.43657100300000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.042425326</c:v>
+                  <c:v>0.50214050399999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1465348870000001</c:v>
+                  <c:v>0.59497643</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1770483970000001</c:v>
+                  <c:v>0.64105930499999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.284851282</c:v>
+                  <c:v>0.68427917000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.470555727</c:v>
+                  <c:v>0.72480883799999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.603075883</c:v>
+                  <c:v>0.79520665999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7184237899999999</c:v>
+                  <c:v>0.83039365899999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.862392096</c:v>
+                  <c:v>0.95262530199999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0663558659999999</c:v>
+                  <c:v>0.99959740500000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2343229999999998</c:v>
+                  <c:v>1.114247647</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.304416883</c:v>
+                  <c:v>1.0822911260000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4897710129999999</c:v>
+                  <c:v>1.241106898</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.71334813</c:v>
+                  <c:v>1.292487215</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.9241196139999999</c:v>
+                  <c:v>1.3906523550000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0469399909999999</c:v>
+                  <c:v>1.488297083</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3629872179999998</c:v>
+                  <c:v>1.606849982</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.5100391110000002</c:v>
+                  <c:v>1.5869086400000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5360303310000001</c:v>
+                  <c:v>1.6143735910000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7940949910000001</c:v>
+                  <c:v>1.548345766</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.8837988380000001</c:v>
+                  <c:v>1.8606262579999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.96809499</c:v>
+                  <c:v>1.9039981420000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.2858833199999999</c:v>
+                  <c:v>2.1330028009999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.6295085199999999</c:v>
+                  <c:v>2.069044329</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.5373947110000001</c:v>
+                  <c:v>2.0777081220000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.8147001549999997</c:v>
+                  <c:v>2.3780872940000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9782508209999996</c:v>
+                  <c:v>2.0777056680000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.2141386599999997</c:v>
+                  <c:v>2.2746728090000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.6829340960000003</c:v>
+                  <c:v>2.3864721059999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.4297677350000004</c:v>
+                  <c:v>2.518394464</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.7084360079999996</c:v>
+                  <c:v>2.6201090279999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.9124614329999998</c:v>
+                  <c:v>2.8828440990000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.1408912119999997</c:v>
+                  <c:v>2.7976167090000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.9327499890000004</c:v>
+                  <c:v>2.4471988269999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.6621944409999996</c:v>
+                  <c:v>2.5780700510000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.9345799049999997</c:v>
+                  <c:v>2.4653661499999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.0923203539999999</c:v>
+                  <c:v>2.5253780479999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.2925400119999999</c:v>
+                  <c:v>2.8706888319999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.7082157919999998</c:v>
+                  <c:v>3.0501337230000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.6749947699999996</c:v>
+                  <c:v>3.1788957760000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.1341511750000004</c:v>
+                  <c:v>3.3902938900000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.0434776540000001</c:v>
+                  <c:v>2.9967331910000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.8453975209999998</c:v>
+                  <c:v>2.8894641710000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -4037,7 +4032,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Search!$E$1</c:f>
+              <c:f>Delete!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4058,9 +4053,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Search!$A$2:$A$51</c:f>
+              <c:f>Delete!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4216,166 +4211,166 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Search!$E$2:$E$51</c:f>
+              <c:f>Delete!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2.6772958199999902E-2</c:v>
+                  <c:v>4.5864158199999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2905043400000003E-2</c:v>
+                  <c:v>0.11348034380000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14849398920000001</c:v>
+                  <c:v>0.27092488240000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20964004819999901</c:v>
+                  <c:v>0.29009133660000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29996382700000002</c:v>
+                  <c:v>0.56641268599999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52215157779999999</c:v>
+                  <c:v>0.67822606299999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52888768239999995</c:v>
+                  <c:v>0.76731073780000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52710097239999998</c:v>
+                  <c:v>0.70234473099999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68054888879999997</c:v>
+                  <c:v>0.95480735039999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79923197980000005</c:v>
+                  <c:v>1.0509261059999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85311431920000003</c:v>
+                  <c:v>1.1347751524</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.900232378</c:v>
+                  <c:v>1.2677508857999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98204163579999904</c:v>
+                  <c:v>1.2730038047999961</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3518892413999899</c:v>
+                  <c:v>1.585908336999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2267953037999999</c:v>
+                  <c:v>1.5373801255999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3589268269999999</c:v>
+                  <c:v>1.6890706274</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.49317442979999</c:v>
+                  <c:v>1.8888692655999961</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6956087743999999</c:v>
+                  <c:v>2.0827517373999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7441813589999999</c:v>
+                  <c:v>2.2304413718</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7508675463999901</c:v>
+                  <c:v>2.25646082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8629008005999901</c:v>
+                  <c:v>2.3595787166000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7960501691999999</c:v>
+                  <c:v>2.3084026086000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8758888196000001</c:v>
+                  <c:v>2.4701046633999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9788616889999999</c:v>
+                  <c:v>2.5415434216000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.26331730019999</c:v>
+                  <c:v>3.0056957718000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5488498994</c:v>
+                  <c:v>2.8621178091999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4651814675999999</c:v>
+                  <c:v>3.2331282074000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5385342089999998</c:v>
+                  <c:v>3.2957183577999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.6931774921999998</c:v>
+                  <c:v>3.358394262199996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0988458840000002</c:v>
+                  <c:v>3.9194114525999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0096631222000001</c:v>
+                  <c:v>3.9660324993999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.9487191907999999</c:v>
+                  <c:v>3.7929383086000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3169179901999901</c:v>
+                  <c:v>4.3848818159999601</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.5831389841999997</c:v>
+                  <c:v>6.1504669052000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9469673578000002</c:v>
+                  <c:v>6.2753002340000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.3543613668000001</c:v>
+                  <c:v>6.8645642367999598</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.7769695097999998</c:v>
+                  <c:v>6.4862620260000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7396238278</c:v>
+                  <c:v>4.8076916060000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.1682736097999999</c:v>
+                  <c:v>5.2465275642</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.1771658397999998</c:v>
+                  <c:v>5.2382460758000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.2855964245999996</c:v>
+                  <c:v>5.5047256965999996</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2754429066000004</c:v>
+                  <c:v>5.6100154711999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.4121364423999996</c:v>
+                  <c:v>5.6853106499999599</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.5453437083999999</c:v>
+                  <c:v>5.7791441883999601</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.2449162359999999</c:v>
+                  <c:v>8.5646310949999993</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.2104543369999998</c:v>
+                  <c:v>9.3764214510000006</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.1900686752</c:v>
+                  <c:v>9.3285065964000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.31231314119999</c:v>
+                  <c:v>9.7426076269999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.3736241275999994</c:v>
+                  <c:v>10.496727189800001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.7665972354000008</c:v>
+                  <c:v>10.600216742200001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -4383,7 +4378,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Search!$F$1</c:f>
+              <c:f>Delete!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4404,9 +4399,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Search!$A$2:$A$51</c:f>
+              <c:f>Delete!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4562,166 +4557,88 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Search!$F$2:$F$51</c:f>
+              <c:f>Delete!$F$2:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4.7567263800000002E-2</c:v>
+                  <c:v>0.2597421325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1190424704</c:v>
+                  <c:v>0.61014623050000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18799460500000001</c:v>
+                  <c:v>1.0041104599999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35114926740000002</c:v>
+                  <c:v>1.5727921435000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38431015419999998</c:v>
+                  <c:v>2.0481456725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49940608079999999</c:v>
+                  <c:v>2.3918939545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59179764560000003</c:v>
+                  <c:v>2.96341665649999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70836553020000004</c:v>
+                  <c:v>3.2594627909999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80232194800000001</c:v>
+                  <c:v>3.935945238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88465452160000002</c:v>
+                  <c:v>4.2220808575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98183910740000002</c:v>
+                  <c:v>4.7098008855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0811594828</c:v>
+                  <c:v>5.2393737119999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2342770837999999</c:v>
+                  <c:v>5.7123928854999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3961999046</c:v>
+                  <c:v>6.5394950434999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4701032716</c:v>
+                  <c:v>7.0978220555</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7365137017999901</c:v>
+                  <c:v>10.297747985000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5501092288</c:v>
+                  <c:v>7.9414616764999897</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6874318958000001</c:v>
+                  <c:v>8.1934609764999902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8433994798</c:v>
+                  <c:v>8.4332490685000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9917313874</c:v>
+                  <c:v>9.3173028794999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.033567798</c:v>
+                  <c:v>13.158895157</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1190867642</c:v>
+                  <c:v>10.4015409125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6354977798000001</c:v>
+                  <c:v>12.028461886500001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3739318504</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.5598055484</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.7444687258</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.1029638231999899</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.6423391837999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.4931425763999902</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.2417661679999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.0815957105999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3040843095999901</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.3068142025999898</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.5801712486000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.8458856039999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.9061714803999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.7665371907999896</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.0255960768000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.7400485467999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.8163831459999997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.9136208363999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.9413939930000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.89170353</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.0778521791999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.5067861657999897</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.9899866476000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.5943328974000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.4916502904</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.9106027986000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.7057435717999896</c:v>
+                  <c:v>11.217386937000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -4729,7 +4646,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Search!$G$1</c:f>
+              <c:f>Delete!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4750,9 +4667,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Search!$A$2:$A$51</c:f>
+              <c:f>Delete!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4908,166 +4825,88 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Search!$G$2:$G$51</c:f>
+              <c:f>Delete!$G$2:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4.1466437600000003E-2</c:v>
+                  <c:v>0.2023928925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1035910156</c:v>
+                  <c:v>0.573948083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17116743840000001</c:v>
+                  <c:v>1.0367367605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28247971500000002</c:v>
+                  <c:v>1.790035448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33055055960000002</c:v>
+                  <c:v>2.1576786920000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42361921599999902</c:v>
+                  <c:v>2.686947741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51112946260000003</c:v>
+                  <c:v>3.3200780475</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62811224180000003</c:v>
+                  <c:v>4.0101532625000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69671422940000005</c:v>
+                  <c:v>4.7481101944999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76022010380000005</c:v>
+                  <c:v>5.5574573975000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90323759100000001</c:v>
+                  <c:v>6.2248883804999897</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0065673466</c:v>
+                  <c:v>7.0703564659999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0001515117999999</c:v>
+                  <c:v>7.7378818049999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1700630298000001</c:v>
+                  <c:v>8.5111866739999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3163681949999999</c:v>
+                  <c:v>9.6418949235000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4247490398</c:v>
+                  <c:v>10.262101703500001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5349196869999999</c:v>
+                  <c:v>11.259518783000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6696492331999999</c:v>
+                  <c:v>12.401903234000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8690409727999999</c:v>
+                  <c:v>13.325393777</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9296815727999901</c:v>
+                  <c:v>14.1887168475</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9945163509999999</c:v>
+                  <c:v>14.937776664999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1696536728</c:v>
+                  <c:v>15.5098420859999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2592767671999998</c:v>
+                  <c:v>17.3248192615</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3141142472</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.46107340659999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.6767021118000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.7206081973999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.6984898527999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.7096372357999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9648024037999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.4611504968000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.6625630901999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.5522923659999899</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.9642593422000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.0427677735999996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.4243549752</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.5088245562000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.7865950795999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.3855540028000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.6011802674000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.2460402127999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.7572681601999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.6064163336000004</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.4585589943999997</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.8097659384</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.4120685214000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.0618536083999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.4552299370000004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.9353022182000004</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.6785905789999997</c:v>
+                  <c:v>18.194501848000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -5075,7 +4914,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Search!$H$1</c:f>
+              <c:f>Delete!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5087,9 +4926,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5098,9 +4935,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Search!$A$2:$A$51</c:f>
+              <c:f>Delete!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5256,355 +5093,88 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Search!$H$2:$H$51</c:f>
+              <c:f>Delete!$H$2:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2.2106456E-2</c:v>
+                  <c:v>0.2469281035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3954226000000003E-2</c:v>
+                  <c:v>0.79762634399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1730794000000004E-2</c:v>
+                  <c:v>1.8860419310000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1372892782</c:v>
+                  <c:v>2.0030309229999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13160887159999901</c:v>
+                  <c:v>3.0619363724999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18560066959999999</c:v>
+                  <c:v>3.0850137389999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.212275992</c:v>
+                  <c:v>3.58557913549999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28480080679999997</c:v>
+                  <c:v>4.3953464625000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3019125748</c:v>
+                  <c:v>5.3322686340000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36817742439999901</c:v>
+                  <c:v>8.0014295519999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37445647240000002</c:v>
+                  <c:v>8.0774393364999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.62521243839999996</c:v>
+                  <c:v>9.1513615984999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50365605759999998</c:v>
+                  <c:v>8.5661715459999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66476669639999997</c:v>
+                  <c:v>10.468350128999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59828884640000002</c:v>
+                  <c:v>13.304058241</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5428304866</c:v>
+                  <c:v>12.456974321000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6281963586</c:v>
+                  <c:v>14.179972007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.76152307080000003</c:v>
+                  <c:v>17.239695043499999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7006469166</c:v>
+                  <c:v>16.618042263500001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.77945344900000002</c:v>
+                  <c:v>17.264780366</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4829285031999899</c:v>
+                  <c:v>21.953384001499899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.83808094740000005</c:v>
+                  <c:v>20.477757198500001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.93001412000000006</c:v>
+                  <c:v>21.088843333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9094094814</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2251056052</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.1987320430000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.1723584808</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.1534524432999951</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.1345464057999901</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.2122966676999951</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.2900469295999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.2912312698999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.2924156102</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.3626344885999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.4328533670000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.4908115795000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.5487697920000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.5823668363000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.6159638806000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.6983715556000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.7807792306000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.8481125165000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.9154458024000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.9030576893999949</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.8906695763999899</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.0601374944999948</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.2296054125999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.3144438853999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.3992823581999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.4129070878899999</c:v>
+                  <c:v>21.669586333000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Search!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal BST</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Search!$I$2:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2.4463207999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9288716E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1847567999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8546939999999901E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1114995999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.1355154000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8745706000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6684910000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.2136671999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9246865999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1315364600000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3558437E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.70140112E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.6960519799999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.10393990859999901</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.10314153379999901</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.122573661199999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.15085356999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18304174519999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.23548128199999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.24199321060000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.27479091020000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.30648461999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.3519483316</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.35494016299999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.39994290160000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.45821907000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.55055378980000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.56713424559999903</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.60817665860000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.60691974599999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.62672373800000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.70678455439999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.68113175240000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.73330163100000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78554701059999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.91472562899999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.0321825132</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.94413554460000004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.95758485240000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.96989763780000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.99102817980000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.94602236539999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.93410345019999996</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.92399577079999995</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.93026153919999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.94539905300000004</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.9422756176</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.93331661600000004</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.96909128309000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -5615,14 +5185,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-365496832"/>
-        <c:axId val="-365499552"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-365496832"/>
+        <c:axId val="-218051536"/>
+        <c:axId val="-95784288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-218051536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5719,2589 +5289,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-365499552"/>
+        <c:crossAx val="-95784288"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-365499552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>time for N</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> searches (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-365496832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Delete Benchmark</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Delete!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MapSet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Delete!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>280000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>320000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>360000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>480000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>520000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>560000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>640000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>680000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>720000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>760000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>840000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>880000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>920000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>960000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1040000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1080000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1120000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1160000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1240000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1280000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1320000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1360000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1440000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1480000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1520000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1560000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1640000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1680000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1720000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1760000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1840000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1880000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1920000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1960000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Delete!$B$2:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>8.7397585999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0408038999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5810490799999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5409990599999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6883330200000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.2282773599999609E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.17339712E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1074332286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1387485565999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1424903002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.18958842279999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16887409879999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1775675454</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.19662879380000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20998510000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22767334880000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.23488430720000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.28068779359999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.30949674599999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2990711392</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.31123064960000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.39046134560000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.360120359</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.37019133559999962</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.39198321120000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.42296687339999994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.42027129900000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.41906542360000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.45091437220000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.48583048059999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.47982699980000004</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.54830764380000008</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.502830628</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.52944898579999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.57115632719999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.59328819980000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.75461116880000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.89594112359999989</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.2159810584000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.0321483348</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.83164997080000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.86258482879999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.1890105408</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.3213622986</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.2795708938000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.1961383914000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.99071204680000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.0793146696</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.035217982</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.0668421108000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Delete!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Red-Black Tree</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Delete!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>280000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>320000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>360000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>480000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>520000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>560000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>640000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>680000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>720000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>760000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>840000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>880000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>920000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>960000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1040000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1080000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1120000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1160000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1240000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1280000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1320000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1360000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1440000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1480000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1520000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1560000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1640000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1680000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1720000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1760000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1840000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1880000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1920000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1960000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Delete!$C$2:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>3.9117182E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.9217380999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14795504800000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25061326</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.281883253</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39836488799999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.44329283400000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.51154147500000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61277800199999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.71761708000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.79879013200000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.84974328099999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.010577149</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99092607600000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0929623740000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.169063336</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2166485709999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.2863202010000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.3903118699999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5233610209999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.9295676239999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.791648567</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.523563389</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.5631717899999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.7067639489999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.9184034240000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.924736438</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.0027750979999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.0990506849999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.2389227489999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.2187284919999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.334216917</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.4145201539999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.5280007279999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.6135826670000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.7562869019999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.9215757450000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.8856869949999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.02340886</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.0442399390000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.2292408890000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.4731942010000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.3881765929999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.5042865339999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.0053298350000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.609645225</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.791508098</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.0724365970000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.9952341570000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.1766372570000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Delete!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Treap</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Delete!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>280000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>320000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>360000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>480000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>520000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>560000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>640000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>680000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>720000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>760000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>840000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>880000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>920000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>960000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1040000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1080000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1120000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1160000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1240000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1280000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1320000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1360000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1440000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1480000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1520000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1560000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1640000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1680000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1720000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1760000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1840000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1880000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1920000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1960000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Delete!$D$2:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>3.5826462000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9617971000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15317492999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20655536199999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26205890199999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32081497199999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41575547699999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43657100300000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.50214050399999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.59497643</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.64105930499999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.68427917000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.72480883799999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.79520665999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.83039365899999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.95262530199999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99959740500000005</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.114247647</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0822911260000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.241106898</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.292487215</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.3906523550000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.488297083</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.606849982</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.5869086400000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.6143735910000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.548345766</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.8606262579999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.9039981420000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.1330028009999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.069044329</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.0777081220000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.3780872940000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.0777056680000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.2746728090000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.3864721059999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.518394464</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.6201090279999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.8828440990000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.7976167090000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.4471988269999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.5780700510000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.4653661499999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.5253780479999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.8706888319999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.0501337230000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.1788957760000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.3902938900000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.9967331910000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.8894641710000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Delete!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SkipList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Delete!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>280000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>320000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>360000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>480000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>520000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>560000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>640000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>680000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>720000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>760000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>840000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>880000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>920000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>960000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1040000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1080000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1120000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1160000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1240000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1280000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1320000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1360000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1440000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1480000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1520000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1560000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1640000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1680000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1720000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1760000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1840000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1880000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1920000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1960000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Delete!$E$2:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>4.5864158199999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11348034380000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27092488240000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29009133660000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56641268599999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67822606299999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76731073780000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70234473099999994</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95480735039999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0509261059999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1347751524</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2677508857999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2730038047999961</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.585908336999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5373801255999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6890706274</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8888692655999961</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.0827517373999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.2304413718</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.25646082</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.3595787166000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.3084026086000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.4701046633999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5415434216000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.0056957718000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.8621178091999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.2331282074000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.2957183577999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.358394262199996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9194114525999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.9660324993999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.7929383086000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.3848818159999601</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.1504669052000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.2753002340000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.8645642367999598</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.4862620260000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.8076916060000006</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.2465275642</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.2382460758000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.5047256965999996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.6100154711999997</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.6853106499999599</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.7791441883999601</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.5646310949999993</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.3764214510000006</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9.3285065964000005</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9.7426076269999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10.496727189800001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10.600216742200001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Delete!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LinkedTodoList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Delete!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>280000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>320000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>360000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>480000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>520000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>560000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>640000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>680000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>720000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>760000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>840000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>880000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>920000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>960000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1040000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1080000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1120000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1160000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1240000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1280000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1320000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1360000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1440000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1480000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1520000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1560000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1640000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1680000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1720000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1760000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1840000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1880000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1920000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1960000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Delete!$F$2:$F$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.2597421325</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61014623050000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0041104599999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5727921435000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0481456725</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3918939545</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.96341665649999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2594627909999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.935945238</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.2220808575</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7098008855</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.2393737119999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.7123928854999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5394950434999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.0978220555</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.297747985000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.9414616764999897</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.1934609764999902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.4332490685000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.3173028794999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.158895157</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.4015409125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.028461886500001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.217386937000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Delete!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TodoList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Delete!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>280000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>320000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>360000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>480000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>520000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>560000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>640000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>680000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>720000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>760000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>840000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>880000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>920000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>960000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1040000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1080000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1120000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1160000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1240000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1280000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1320000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1360000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1440000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1480000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1520000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1560000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1640000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1680000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1720000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1760000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1840000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1880000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1920000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1960000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Delete!$G$2:$G$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.2023928925</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.573948083</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0367367605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.790035448</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1576786920000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.686947741</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3200780475</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0101532625000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7481101944999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5574573975000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.2248883804999897</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.0703564659999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.7378818049999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.5111866739999993</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.6418949235000007</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.262101703500001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.259518783000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.401903234000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.325393777</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.1887168475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.937776664999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.5098420859999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.3248192615</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.194501848000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Delete!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TodoList2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Delete!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>280000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>320000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>360000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>440000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>480000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>520000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>560000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>640000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>680000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>720000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>760000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>840000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>880000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>920000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>960000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1040000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1080000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1120000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1160000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1240000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1280000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1320000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1360000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1400000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1440000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1480000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1520000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1560000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1640000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1680000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1720000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1760000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1840000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1880000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1920000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1960000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Delete!$H$2:$H$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.2469281035</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79762634399999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8860419310000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0030309229999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0619363724999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0850137389999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.58557913549999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3953464625000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3322686340000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.0014295519999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.0774393364999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.1513615984999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.5661715459999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.468350128999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.304058241</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.456974321000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.179972007</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.239695043499999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.618042263500001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.264780366</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.953384001499899</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.477757198500001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.088843333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.669586333000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-45537184"/>
-        <c:axId val="-45548064"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-45537184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-45548064"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-45548064"/>
+        <c:axId val="-95784288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8413,9 +5407,3180 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-45537184"/>
+        <c:crossAx val="-218051536"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Search</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Benchmark</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Search!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MapSet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Search!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Search!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.4959869999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1035482000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3657945600000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6798088400000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.11152506E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0144598599999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2603277799999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5203378E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9733046400000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9051791400000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0554362199999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3032157200000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5778828799999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0651769799999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0710774800000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7222071599999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0702673599999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3126383399999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4264924E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.100310937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10901253900000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14538368360000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1375164066</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1434122374</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.10915348</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12210995199999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1565488806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14832905860000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1310360408</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28533776459999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14610647399999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15771836239999901</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16377451940000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16532234600000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17398887020000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18218413559999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1896470992</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.22328569619999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.22445342660000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.221558646</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2218560212</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.25505067920000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.32419073679999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.29808806560000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.30803501919999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.2963935218</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.31987356760000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.27213159840000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36012655319999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.21582949600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Search!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Red-Black Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Search!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Search!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>3.8385990000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9773444000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.172882431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22528696500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28039560200000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41991780899999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45649140900000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50235220800000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.574251442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.734727935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76752314300000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82283842100000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92740351899999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99206715099999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0420504129999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1075049880000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.220506753</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2663653180000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.33314018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4270815610000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.980421955</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7193733920000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4723350180000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5138967169999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.665511988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.801099276</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.844903306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9039993129999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0431097739999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1397257989999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2043222560000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.244364622</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3167069389999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4623977720000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5848329190000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.744039436</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8745230190000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8683985750000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9024941850000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0243879539999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0780696189999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.2435350359999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.257445583</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.42082145</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5814098670000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.549985661</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6268859170000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0434248679999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8211296529999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0777813470000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Search!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Treap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Search!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Search!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4.7458743999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13196638199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22822484700000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34029010799999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46136881699999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59342194400000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76573316899999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87840929599999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.042425326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1465348870000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1770483970000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.284851282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.470555727</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.603075883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7184237899999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.862392096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0663558659999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2343229999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.304416883</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4897710129999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.71334813</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9241196139999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0469399909999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3629872179999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5100391110000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5360303310000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7940949910000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8837988380000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.96809499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2858833199999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6295085199999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5373947110000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.8147001549999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9782508209999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.2141386599999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.6829340960000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4297677350000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7084360079999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.9124614329999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1408912119999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.9327499890000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.6621944409999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.9345799049999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.0923203539999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2925400119999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.7082157919999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.6749947699999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.1341511750000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.0434776540000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.8453975209999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Search!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SkipList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Search!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Search!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.6772958199999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2905043400000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14849398920000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20964004819999901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29996382700000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52215157779999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52888768239999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52710097239999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68054888879999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79923197980000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85311431920000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.900232378</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98204163579999904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3518892413999899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2267953037999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3589268269999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.49317442979999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6956087743999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7441813589999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7508675463999901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8629008005999901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7960501691999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8758888196000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9788616889999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.26331730019999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5488498994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4651814675999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5385342089999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6931774921999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0988458840000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0096631222000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9487191907999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3169179901999901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.5831389841999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9469673578000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.3543613668000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.7769695097999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7396238278</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1682736097999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1771658397999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.2855964245999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.2754429066000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4121364423999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.5453437083999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2449162359999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.2104543369999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.1900686752</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.31231314119999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.3736241275999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.7665972354000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Search!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinkedTodoList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Search!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Search!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4.7567263800000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1190424704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18799460500000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35114926740000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38431015419999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49940608079999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59179764560000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70836553020000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80232194800000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88465452160000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98183910740000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0811594828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2342770837999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3961999046</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4701032716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7365137017999901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5501092288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6874318958000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8433994798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9917313874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.033567798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1190867642</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6354977798000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3739318504</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5598055484</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7444687258</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1029638231999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6423391837999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4931425763999902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2417661679999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0815957105999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3040843095999901</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3068142025999898</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5801712486000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8458856039999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9061714803999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.7665371907999896</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0255960768000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.7400485467999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8163831459999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9136208363999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.9413939930000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.89170353</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0778521791999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5067861657999897</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.9899866476000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.5943328974000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.4916502904</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.9106027986000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.7057435717999896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Search!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TodoList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Search!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Search!$G$2:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4.1466437600000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1035910156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17116743840000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28247971500000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33055055960000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42361921599999902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51112946260000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62811224180000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69671422940000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76022010380000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90323759100000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0065673466</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0001515117999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1700630298000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3163681949999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4247490398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5349196869999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6696492331999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8690409727999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9296815727999901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9945163509999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1696536728</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2592767671999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3141142472</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.46107340659999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6767021118000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7206081973999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6984898527999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7096372357999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9648024037999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4611504968000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6625630901999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.5522923659999899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9642593422000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0427677735999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4243549752</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5088245562000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7865950795999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3855540028000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.6011802674000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.2460402127999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.7572681601999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.6064163336000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.4585589943999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.8097659384</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.4120685214000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.0618536083999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.4552299370000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.9353022182000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.6785905789999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Search!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TodoList2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Search!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Search!$H$2:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.2106456E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3954226000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1730794000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1372892782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13160887159999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18560066959999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.212275992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28480080679999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3019125748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36817742439999901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37445647240000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62521243839999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50365605759999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66476669639999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59828884640000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5428304866</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6281963586</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76152307080000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7006469166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77945344900000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4829285031999899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83808094740000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93001412000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9094094814</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2251056052</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1987320430000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1723584808</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1534524432999951</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1345464057999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2122966676999951</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2900469295999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2912312698999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2924156102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3626344885999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4328533670000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4908115795000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5487697920000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5823668363000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6159638806000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6983715556000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7807792306000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8481125165000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9154458024000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9030576893999949</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8906695763999899</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0601374944999948</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2296054125999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3144438853999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3992823581999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4129070878899999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Search!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal BST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Search!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Search!$I$2:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.4463207999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9288716E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1847567999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8546939999999901E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1114995999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1355154000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8745706000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6684910000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2136671999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9246865999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1315364600000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3558437E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.70140112E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6960519799999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10393990859999901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10314153379999901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.122573661199999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15085356999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18304174519999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23548128199999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24199321060000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27479091020000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30648461999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3519483316</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35494016299999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.39994290160000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.45821907000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.55055378980000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56713424559999903</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60817665860000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.60691974599999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62672373800000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70678455439999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68113175240000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73330163100000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.78554701059999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91472562899999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0321825132</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94413554460000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95758485240000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.96989763780000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99102817980000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.94602236539999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93410345019999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92399577079999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93026153919999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94539905300000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9422756176</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.93331661600000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.96909128309000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-37249776"/>
+        <c:axId val="-37249232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-37249776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-37249232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-37249232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time for n searches (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-37249776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9642,7 +9807,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9669,8 +9834,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9750,11 +9915,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9765,11 +9925,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9781,7 +9936,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9801,9 +9956,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9816,10 +9968,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9859,22 +10011,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9979,8 +10132,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10112,19 +10265,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10138,6 +10292,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10161,7 +10326,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10172,7 +10337,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10183,7 +10348,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10248,7 +10413,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8678333" cy="6297083"/>
+    <xdr:ext cx="8668435" cy="6290612"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -10536,8 +10701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10577,7 +10742,7 @@
         <v>40000</v>
       </c>
       <c r="B2">
-        <v>2.7060300599999997E-2</v>
+        <v>1.37780096E-2</v>
       </c>
       <c r="C2">
         <v>4.6347932000000001E-2</v>
@@ -10603,7 +10768,7 @@
         <v>80000</v>
       </c>
       <c r="B3">
-        <v>4.8813133199999997E-2</v>
+        <v>2.5735029999999999E-2</v>
       </c>
       <c r="C3">
         <v>0.117063603</v>
@@ -10629,7 +10794,7 @@
         <v>120000</v>
       </c>
       <c r="B4">
-        <v>0.1029467996</v>
+        <v>5.29675706E-2</v>
       </c>
       <c r="C4">
         <v>0.156598453</v>
@@ -10655,7 +10820,7 @@
         <v>160000</v>
       </c>
       <c r="B5">
-        <v>0.1173946438</v>
+        <v>5.82415778E-2</v>
       </c>
       <c r="C5">
         <v>0.25489984500000001</v>
@@ -10681,7 +10846,7 @@
         <v>200000</v>
       </c>
       <c r="B6">
-        <v>0.13880606379999999</v>
+        <v>6.9173203799999999E-2</v>
       </c>
       <c r="C6">
         <v>0.30740737000000001</v>
@@ -10707,7 +10872,7 @@
         <v>240000</v>
       </c>
       <c r="B7">
-        <v>0.20931543499999999</v>
+        <v>0.13697332679999999</v>
       </c>
       <c r="C7">
         <v>0.39327108199999999</v>
@@ -10733,7 +10898,7 @@
         <v>280000</v>
       </c>
       <c r="B8">
-        <v>0.22327754599999999</v>
+        <v>0.11723903920000001</v>
       </c>
       <c r="C8">
         <v>0.48104382000000001</v>
@@ -10759,7 +10924,7 @@
         <v>320000</v>
       </c>
       <c r="B9">
-        <v>0.26405193919999997</v>
+        <v>0.14901148480000001</v>
       </c>
       <c r="C9">
         <v>0.55448214699999998</v>
@@ -10785,7 +10950,7 @@
         <v>360000</v>
       </c>
       <c r="B10">
-        <v>0.30742663840000001</v>
+        <v>0.1625387274</v>
       </c>
       <c r="C10">
         <v>0.65257505500000001</v>
@@ -10811,7 +10976,7 @@
         <v>400000</v>
       </c>
       <c r="B11">
-        <v>0.31152594020000002</v>
+        <v>0.17354464080000001</v>
       </c>
       <c r="C11">
         <v>0.82521091999999996</v>
@@ -10837,7 +11002,7 @@
         <v>440000</v>
       </c>
       <c r="B12">
-        <v>0.43626531039999994</v>
+        <v>0.24081433720000001</v>
       </c>
       <c r="C12">
         <v>0.88424366700000001</v>
@@ -10863,7 +11028,7 @@
         <v>480000</v>
       </c>
       <c r="B13">
-        <v>0.42771110800000001</v>
+        <v>0.2102132722</v>
       </c>
       <c r="C13">
         <v>0.912365486</v>
@@ -10889,7 +11054,7 @@
         <v>520000</v>
       </c>
       <c r="B14">
-        <v>0.46866799940000003</v>
+        <v>0.23469969760000001</v>
       </c>
       <c r="C14">
         <v>1.0224447320000001</v>
@@ -10915,7 +11080,7 @@
         <v>560000</v>
       </c>
       <c r="B15">
-        <v>0.4874879406</v>
+        <v>0.26105493219999998</v>
       </c>
       <c r="C15">
         <v>1.063802301</v>
@@ -10941,7 +11106,7 @@
         <v>600000</v>
       </c>
       <c r="B16">
-        <v>0.52210108379999998</v>
+        <v>0.30290750560000002</v>
       </c>
       <c r="C16">
         <v>1.16227613</v>
@@ -10967,7 +11132,7 @@
         <v>640000</v>
       </c>
       <c r="B17">
-        <v>0.56618247560000001</v>
+        <v>0.27277252639999999</v>
       </c>
       <c r="C17">
         <v>1.2014208019999999</v>
@@ -10993,7 +11158,7 @@
         <v>680000</v>
       </c>
       <c r="B18">
-        <v>0.57804447059999997</v>
+        <v>0.2827906912</v>
       </c>
       <c r="C18">
         <v>1.286076006</v>
@@ -11019,7 +11184,7 @@
         <v>720000</v>
       </c>
       <c r="B19">
-        <v>0.63634029479999998</v>
+        <v>0.29277729600000002</v>
       </c>
       <c r="C19">
         <v>1.3592337999999999</v>
@@ -11045,7 +11210,7 @@
         <v>760000</v>
       </c>
       <c r="B20">
-        <v>0.69115305699999996</v>
+        <v>0.30044751759999999</v>
       </c>
       <c r="C20">
         <v>1.4571964749999999</v>
@@ -11071,7 +11236,7 @@
         <v>800000</v>
       </c>
       <c r="B21">
-        <v>0.66389195339999607</v>
+        <v>0.33926399899999998</v>
       </c>
       <c r="C21">
         <v>1.5495338839999999</v>
@@ -11097,7 +11262,7 @@
         <v>840000</v>
       </c>
       <c r="B22">
-        <v>0.69486180400000008</v>
+        <v>0.3321959028</v>
       </c>
       <c r="C22">
         <v>2.2808446660000001</v>
@@ -11123,7 +11288,7 @@
         <v>880000</v>
       </c>
       <c r="B23">
-        <v>0.86385736479999997</v>
+        <v>0.51693536399999995</v>
       </c>
       <c r="C23">
         <v>1.83247643</v>
@@ -11149,7 +11314,7 @@
         <v>920000</v>
       </c>
       <c r="B24">
-        <v>0.88920712359999998</v>
+        <v>0.41315259780000002</v>
       </c>
       <c r="C24">
         <v>1.608634847</v>
@@ -11175,7 +11340,7 @@
         <v>960000</v>
       </c>
       <c r="B25">
-        <v>0.94536890780000005</v>
+        <v>0.52209565099999999</v>
       </c>
       <c r="C25">
         <v>1.6631514599999999</v>
@@ -11201,7 +11366,7 @@
         <v>1000000</v>
       </c>
       <c r="B26">
-        <v>1.0083364958000001</v>
+        <v>0.54138878599999996</v>
       </c>
       <c r="C26">
         <v>1.7519916099999999</v>
@@ -11227,7 +11392,7 @@
         <v>1040000</v>
       </c>
       <c r="B27">
-        <v>1.077441954</v>
+        <v>0.53085562919999996</v>
       </c>
       <c r="C27">
         <v>1.995995679</v>
@@ -11253,7 +11418,7 @@
         <v>1080000</v>
       </c>
       <c r="B28">
-        <v>1.0667681308000001</v>
+        <v>0.60448352940000005</v>
       </c>
       <c r="C28">
         <v>1.9721695530000001</v>
@@ -11279,7 +11444,7 @@
         <v>1120000</v>
       </c>
       <c r="B29">
-        <v>1.0794556966</v>
+        <v>0.65733907359999999</v>
       </c>
       <c r="C29">
         <v>2.094736315</v>
@@ -11305,7 +11470,7 @@
         <v>1160000</v>
       </c>
       <c r="B30">
-        <v>1.137745888</v>
+        <v>0.50099962360000005</v>
       </c>
       <c r="C30">
         <v>2.119920477</v>
@@ -11331,7 +11496,7 @@
         <v>1200000</v>
       </c>
       <c r="B31">
-        <v>1.2254866434</v>
+        <v>0.68915093400000005</v>
       </c>
       <c r="C31">
         <v>2.2730128500000002</v>
@@ -11357,7 +11522,7 @@
         <v>1240000</v>
       </c>
       <c r="B32">
-        <v>1.2800879817999999</v>
+        <v>0.65130067960000004</v>
       </c>
       <c r="C32">
         <v>2.2240453549999999</v>
@@ -11383,7 +11548,7 @@
         <v>1280000</v>
       </c>
       <c r="B33">
-        <v>1.3758754228000001</v>
+        <v>0.60084901319999995</v>
       </c>
       <c r="C33">
         <v>2.3759131080000002</v>
@@ -11409,7 +11574,7 @@
         <v>1320000</v>
       </c>
       <c r="B34">
-        <v>1.2624586637999999</v>
+        <v>0.59100094140000003</v>
       </c>
       <c r="C34">
         <v>2.4372042999999999</v>
@@ -11435,7 +11600,7 @@
         <v>1360000</v>
       </c>
       <c r="B35">
-        <v>1.2800964654</v>
+        <v>0.63656232779999999</v>
       </c>
       <c r="C35">
         <v>2.6068192049999999</v>
@@ -11461,7 +11626,7 @@
         <v>1400000</v>
       </c>
       <c r="B36">
-        <v>1.4452071704</v>
+        <v>0.60861633520000002</v>
       </c>
       <c r="C36">
         <v>2.6650322380000002</v>
@@ -11487,7 +11652,7 @@
         <v>1440000</v>
       </c>
       <c r="B37">
-        <v>1.4699812240000001</v>
+        <v>0.62442013799999996</v>
       </c>
       <c r="C37">
         <v>2.8567335599999999</v>
@@ -11513,7 +11678,7 @@
         <v>1480000</v>
       </c>
       <c r="B38">
-        <v>1.7514504209999999</v>
+        <v>0.64083929100000003</v>
       </c>
       <c r="C38">
         <v>3.0176216579999999</v>
@@ -11539,7 +11704,7 @@
         <v>1520000</v>
       </c>
       <c r="B39">
-        <v>1.9972727202000002</v>
+        <v>0.72346284299999997</v>
       </c>
       <c r="C39">
         <v>3.0724453770000002</v>
@@ -11565,7 +11730,7 @@
         <v>1560000</v>
       </c>
       <c r="B40">
-        <v>2.5609947212000002</v>
+        <v>0.71458129500000001</v>
       </c>
       <c r="C40">
         <v>3.0473322459999999</v>
@@ -11591,7 +11756,7 @@
         <v>1600000</v>
       </c>
       <c r="B41">
-        <v>2.3749345935999999</v>
+        <v>0.72212595239999999</v>
       </c>
       <c r="C41">
         <v>3.1110760000000002</v>
@@ -11617,7 +11782,7 @@
         <v>1640000</v>
       </c>
       <c r="B42">
-        <v>1.8889139166</v>
+        <v>0.71336506219999996</v>
       </c>
       <c r="C42">
         <v>3.2270129550000002</v>
@@ -11643,7 +11808,7 @@
         <v>1680000</v>
       </c>
       <c r="B43">
-        <v>1.9613905705999961</v>
+        <v>0.76674330680000002</v>
       </c>
       <c r="C43">
         <v>3.3513513750000001</v>
@@ -11669,7 +11834,7 @@
         <v>1720000</v>
       </c>
       <c r="B44">
-        <v>2.3996395071999959</v>
+        <v>1.1351774591999999</v>
       </c>
       <c r="C44">
         <v>3.476450491</v>
@@ -11695,7 +11860,7 @@
         <v>1760000</v>
       </c>
       <c r="B45">
-        <v>2.840205477</v>
+        <v>0.89426790420000002</v>
       </c>
       <c r="C45">
         <v>3.5372492489999998</v>
@@ -11721,7 +11886,7 @@
         <v>1800000</v>
       </c>
       <c r="B46">
-        <v>2.7068800484</v>
+        <v>0.86939694980000004</v>
       </c>
       <c r="C46">
         <v>3.9294418210000002</v>
@@ -11747,7 +11912,7 @@
         <v>1840000</v>
       </c>
       <c r="B47">
-        <v>2.7455595671999959</v>
+        <v>0.89311515299999999</v>
       </c>
       <c r="C47">
         <v>3.8703423780000001</v>
@@ -11773,7 +11938,7 @@
         <v>1880000</v>
       </c>
       <c r="B48">
-        <v>2.5912129881999997</v>
+        <v>1.0101899736</v>
       </c>
       <c r="C48">
         <v>3.812806852</v>
@@ -11799,7 +11964,7 @@
         <v>1920000</v>
       </c>
       <c r="B49">
-        <v>2.6584210694000001</v>
+        <v>0.9306107548</v>
       </c>
       <c r="C49">
         <v>4.0329901689999996</v>
@@ -11825,7 +11990,7 @@
         <v>1960000</v>
       </c>
       <c r="B50">
-        <v>2.7463696214</v>
+        <v>1.0272953869999999</v>
       </c>
       <c r="C50">
         <v>3.9557357139999998</v>
@@ -11851,7 +12016,7 @@
         <v>2000000</v>
       </c>
       <c r="B51">
-        <v>2.7870586448000001</v>
+        <v>0.99374261679999998</v>
       </c>
       <c r="C51">
         <v>4.1984741310000002</v>
@@ -11881,8 +12046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11924,7 +12089,7 @@
         <v>40000</v>
       </c>
       <c r="B2">
-        <v>2.2890110000000001E-3</v>
+        <v>2.4959869999999999E-3</v>
       </c>
       <c r="C2">
         <v>3.8385990000000002E-2</v>
@@ -11953,7 +12118,7 @@
         <v>80000</v>
       </c>
       <c r="B3">
-        <v>6.4208383000000004E-3</v>
+        <v>6.1035482000000004E-3</v>
       </c>
       <c r="C3">
         <v>9.9773444000000003E-2</v>
@@ -11982,7 +12147,7 @@
         <v>120000</v>
       </c>
       <c r="B4">
-        <v>1.4584353099999999E-2</v>
+        <v>1.3657945600000001E-2</v>
       </c>
       <c r="C4">
         <v>0.172882431</v>
@@ -12011,7 +12176,7 @@
         <v>160000</v>
       </c>
       <c r="B5">
-        <v>1.63837397E-2</v>
+        <v>1.6798088400000001E-2</v>
       </c>
       <c r="C5">
         <v>0.22528696500000001</v>
@@ -12040,7 +12205,7 @@
         <v>200000</v>
       </c>
       <c r="B6">
-        <v>2.2391823999999901E-2</v>
+        <v>2.11152506E-2</v>
       </c>
       <c r="C6">
         <v>0.28039560200000002</v>
@@ -12069,7 +12234,7 @@
         <v>240000</v>
       </c>
       <c r="B7">
-        <v>3.0561182499999999E-2</v>
+        <v>3.0144598599999999E-2</v>
       </c>
       <c r="C7">
         <v>0.41991780899999998</v>
@@ -12098,7 +12263,7 @@
         <v>280000</v>
       </c>
       <c r="B8">
-        <v>2.9833500299999999E-2</v>
+        <v>3.2603277799999997E-2</v>
       </c>
       <c r="C8">
         <v>0.45649140900000001</v>
@@ -12127,7 +12292,7 @@
         <v>320000</v>
       </c>
       <c r="B9">
-        <v>3.5320678899999999E-2</v>
+        <v>3.5203378E-2</v>
       </c>
       <c r="C9">
         <v>0.50235220800000002</v>
@@ -12156,7 +12321,7 @@
         <v>360000</v>
       </c>
       <c r="B10">
-        <v>4.83178103E-2</v>
+        <v>4.9733046400000001E-2</v>
       </c>
       <c r="C10">
         <v>0.574251442</v>
@@ -12185,7 +12350,7 @@
         <v>400000</v>
       </c>
       <c r="B11">
-        <v>5.00958918E-2</v>
+        <v>4.9051791400000003E-2</v>
       </c>
       <c r="C11">
         <v>0.734727935</v>
@@ -12214,7 +12379,7 @@
         <v>440000</v>
       </c>
       <c r="B12">
-        <v>7.1008527599999996E-2</v>
+        <v>7.0554362199999998E-2</v>
       </c>
       <c r="C12">
         <v>0.76752314300000002</v>
@@ -12243,7 +12408,7 @@
         <v>480000</v>
       </c>
       <c r="B13">
-        <v>6.4805778999999994E-2</v>
+        <v>7.3032157200000003E-2</v>
       </c>
       <c r="C13">
         <v>0.82283842100000004</v>
@@ -12272,7 +12437,7 @@
         <v>520000</v>
       </c>
       <c r="B14">
-        <v>5.7208662799999997E-2</v>
+        <v>5.5778828799999999E-2</v>
       </c>
       <c r="C14">
         <v>0.92740351899999995</v>
@@ -12301,7 +12466,7 @@
         <v>560000</v>
       </c>
       <c r="B15">
-        <v>6.2497634199999999E-2</v>
+        <v>6.0651769799999998E-2</v>
       </c>
       <c r="C15">
         <v>0.99206715099999998</v>
@@ -12330,7 +12495,7 @@
         <v>600000</v>
       </c>
       <c r="B16">
-        <v>7.1399192199999906E-2</v>
+        <v>9.0710774800000005E-2</v>
       </c>
       <c r="C16">
         <v>1.0420504129999999</v>
@@ -12359,7 +12524,7 @@
         <v>640000</v>
       </c>
       <c r="B17">
-        <v>7.6144457199999904E-2</v>
+        <v>7.7222071599999997E-2</v>
       </c>
       <c r="C17">
         <v>1.1075049880000001</v>
@@ -12388,7 +12553,7 @@
         <v>680000</v>
       </c>
       <c r="B18">
-        <v>8.5229357300000003E-2</v>
+        <v>8.0702673599999997E-2</v>
       </c>
       <c r="C18">
         <v>1.220506753</v>
@@ -12417,7 +12582,7 @@
         <v>720000</v>
       </c>
       <c r="B19">
-        <v>9.0197483699999997E-2</v>
+        <v>9.3126383399999998E-2</v>
       </c>
       <c r="C19">
         <v>1.2663653180000001</v>
@@ -12446,7 +12611,7 @@
         <v>760000</v>
       </c>
       <c r="B20">
-        <v>0.1054238425</v>
+        <v>9.4264924E-2</v>
       </c>
       <c r="C20">
         <v>1.33314018</v>
@@ -12475,7 +12640,7 @@
         <v>800000</v>
       </c>
       <c r="B21">
-        <v>0.101751841599999</v>
+        <v>0.100310937</v>
       </c>
       <c r="C21">
         <v>1.4270815610000001</v>
@@ -12504,7 +12669,7 @@
         <v>840000</v>
       </c>
       <c r="B22">
-        <v>0.111283507299999</v>
+        <v>0.10901253900000001</v>
       </c>
       <c r="C22">
         <v>1.980421955</v>
@@ -12533,7 +12698,7 @@
         <v>880000</v>
       </c>
       <c r="B23">
-        <v>0.15269049609999999</v>
+        <v>0.14538368360000001</v>
       </c>
       <c r="C23">
         <v>1.7193733920000001</v>
@@ -12562,7 +12727,7 @@
         <v>920000</v>
       </c>
       <c r="B24">
-        <v>0.1408797286</v>
+        <v>0.1375164066</v>
       </c>
       <c r="C24">
         <v>1.4723350180000001</v>
@@ -12591,7 +12756,7 @@
         <v>960000</v>
       </c>
       <c r="B25">
-        <v>0.1330930793</v>
+        <v>0.1434122374</v>
       </c>
       <c r="C25">
         <v>1.5138967169999999</v>
@@ -12620,7 +12785,7 @@
         <v>1000000</v>
       </c>
       <c r="B26">
-        <v>0.11264066070000001</v>
+        <v>0.10915348</v>
       </c>
       <c r="C26">
         <v>1.665511988</v>
@@ -12649,7 +12814,7 @@
         <v>1040000</v>
       </c>
       <c r="B27">
-        <v>0.13618964210000001</v>
+        <v>0.12210995199999999</v>
       </c>
       <c r="C27">
         <v>1.801099276</v>
@@ -12678,7 +12843,7 @@
         <v>1080000</v>
       </c>
       <c r="B28">
-        <v>0.130362332</v>
+        <v>0.1565488806</v>
       </c>
       <c r="C28">
         <v>1.844903306</v>
@@ -12707,7 +12872,7 @@
         <v>1120000</v>
       </c>
       <c r="B29">
-        <v>0.1311499059</v>
+        <v>0.14832905860000001</v>
       </c>
       <c r="C29">
         <v>1.9039993129999999</v>
@@ -12736,7 +12901,7 @@
         <v>1160000</v>
       </c>
       <c r="B30">
-        <v>0.14698059920000001</v>
+        <v>0.1310360408</v>
       </c>
       <c r="C30">
         <v>2.0431097739999999</v>
@@ -12765,7 +12930,7 @@
         <v>1200000</v>
       </c>
       <c r="B31">
-        <v>0.15350563110000001</v>
+        <v>0.28533776459999999</v>
       </c>
       <c r="C31">
         <v>2.1397257989999998</v>
@@ -12794,7 +12959,7 @@
         <v>1240000</v>
       </c>
       <c r="B32">
-        <v>0.15781506679999999</v>
+        <v>0.14610647399999999</v>
       </c>
       <c r="C32">
         <v>2.2043222560000002</v>
@@ -12823,7 +12988,7 @@
         <v>1280000</v>
       </c>
       <c r="B33">
-        <v>0.1732448459</v>
+        <v>0.15771836239999901</v>
       </c>
       <c r="C33">
         <v>2.244364622</v>
@@ -12852,7 +13017,7 @@
         <v>1320000</v>
       </c>
       <c r="B34">
-        <v>0.16657456449999999</v>
+        <v>0.16377451940000001</v>
       </c>
       <c r="C34">
         <v>2.3167069389999999</v>
@@ -12881,7 +13046,7 @@
         <v>1360000</v>
       </c>
       <c r="B35">
-        <v>0.17823065760000001</v>
+        <v>0.16532234600000001</v>
       </c>
       <c r="C35">
         <v>2.4623977720000001</v>
@@ -12910,7 +13075,7 @@
         <v>1400000</v>
       </c>
       <c r="B36">
-        <v>0.19368046729999999</v>
+        <v>0.17398887020000001</v>
       </c>
       <c r="C36">
         <v>2.5848329190000001</v>
@@ -12939,7 +13104,7 @@
         <v>1440000</v>
       </c>
       <c r="B37">
-        <v>0.201418077</v>
+        <v>0.18218413559999999</v>
       </c>
       <c r="C37">
         <v>2.744039436</v>
@@ -12968,7 +13133,7 @@
         <v>1480000</v>
       </c>
       <c r="B38">
-        <v>0.25692288899999999</v>
+        <v>0.1896470992</v>
       </c>
       <c r="C38">
         <v>2.8745230190000002</v>
@@ -12997,7 +13162,7 @@
         <v>1520000</v>
       </c>
       <c r="B39">
-        <v>0.29434579379999998</v>
+        <v>0.22328569619999999</v>
       </c>
       <c r="C39">
         <v>2.8683985750000001</v>
@@ -13026,7 +13191,7 @@
         <v>1560000</v>
       </c>
       <c r="B40">
-        <v>0.38177026739999997</v>
+        <v>0.22445342660000001</v>
       </c>
       <c r="C40">
         <v>2.9024941850000001</v>
@@ -13055,7 +13220,7 @@
         <v>1600000</v>
       </c>
       <c r="B41">
-        <v>0.35447891770000001</v>
+        <v>0.221558646</v>
       </c>
       <c r="C41">
         <v>3.0243879539999998</v>
@@ -13084,7 +13249,7 @@
         <v>1640000</v>
       </c>
       <c r="B42">
-        <v>0.2899466758</v>
+        <v>0.2218560212</v>
       </c>
       <c r="C42">
         <v>3.0780696189999999</v>
@@ -13113,7 +13278,7 @@
         <v>1680000</v>
       </c>
       <c r="B43">
-        <v>0.29862427390000001</v>
+        <v>0.25505067920000002</v>
       </c>
       <c r="C43">
         <v>3.2435350359999999</v>
@@ -13142,7 +13307,7 @@
         <v>1720000</v>
       </c>
       <c r="B44">
-        <v>0.36220167289999999</v>
+        <v>0.32419073679999999</v>
       </c>
       <c r="C44">
         <v>3.257445583</v>
@@ -13171,7 +13336,7 @@
         <v>1760000</v>
       </c>
       <c r="B45">
-        <v>0.47300544830000002</v>
+        <v>0.29808806560000001</v>
       </c>
       <c r="C45">
         <v>3.42082145</v>
@@ -13200,7 +13365,7 @@
         <v>1800000</v>
       </c>
       <c r="B46">
-        <v>0.51416430030000004</v>
+        <v>0.30803501919999998</v>
       </c>
       <c r="C46">
         <v>3.5814098670000001</v>
@@ -13229,7 +13394,7 @@
         <v>1840000</v>
       </c>
       <c r="B47">
-        <v>0.44365942929999902</v>
+        <v>0.2963935218</v>
       </c>
       <c r="C47">
         <v>3.549985661</v>
@@ -13258,7 +13423,7 @@
         <v>1880000</v>
       </c>
       <c r="B48">
-        <v>0.40959322190000003</v>
+        <v>0.31987356760000002</v>
       </c>
       <c r="C48">
         <v>3.6268859170000001</v>
@@ -13287,7 +13452,7 @@
         <v>1920000</v>
       </c>
       <c r="B49">
-        <v>0.40663054869999998</v>
+        <v>0.27213159840000001</v>
       </c>
       <c r="C49">
         <v>4.0434248679999998</v>
@@ -13316,7 +13481,7 @@
         <v>1960000</v>
       </c>
       <c r="B50">
-        <v>0.39072093000000002</v>
+        <v>0.36012655319999998</v>
       </c>
       <c r="C50">
         <v>3.8211296529999998</v>
@@ -13345,7 +13510,7 @@
         <v>2000000</v>
       </c>
       <c r="B51">
-        <v>0.32926529809999999</v>
+        <v>0.21582949600000001</v>
       </c>
       <c r="C51">
         <v>4.0777813470000002</v>
@@ -13378,8 +13543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:H51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13418,7 +13583,7 @@
         <v>40000</v>
       </c>
       <c r="B2">
-        <v>8.7397585999999996E-3</v>
+        <v>4.5770715999999996E-3</v>
       </c>
       <c r="C2">
         <v>3.9117182E-2</v>
@@ -13444,7 +13609,7 @@
         <v>80000</v>
       </c>
       <c r="B3">
-        <v>2.0408038999999999E-2</v>
+        <v>9.1585052E-3</v>
       </c>
       <c r="C3">
         <v>9.9217380999999993E-2</v>
@@ -13470,7 +13635,7 @@
         <v>120000</v>
       </c>
       <c r="B4">
-        <v>3.5810490799999997E-2</v>
+        <v>1.7931882400000002E-2</v>
       </c>
       <c r="C4">
         <v>0.14795504800000001</v>
@@ -13496,7 +13661,7 @@
         <v>160000</v>
       </c>
       <c r="B5">
-        <v>4.5409990599999998E-2</v>
+        <v>2.5435996799999999E-2</v>
       </c>
       <c r="C5">
         <v>0.25061326</v>
@@ -13522,7 +13687,7 @@
         <v>200000</v>
       </c>
       <c r="B6">
-        <v>6.6883330200000007E-2</v>
+        <v>3.3609331999999999E-2</v>
       </c>
       <c r="C6">
         <v>0.281883253</v>
@@ -13548,7 +13713,7 @@
         <v>240000</v>
       </c>
       <c r="B7">
-        <v>8.2282773599999609E-2</v>
+        <v>4.2819967E-2</v>
       </c>
       <c r="C7">
         <v>0.39836488799999997</v>
@@ -13574,7 +13739,7 @@
         <v>280000</v>
       </c>
       <c r="B8">
-        <v>9.17339712E-2</v>
+        <v>5.9837661799999997E-2</v>
       </c>
       <c r="C8">
         <v>0.44329283400000002</v>
@@ -13600,7 +13765,7 @@
         <v>320000</v>
       </c>
       <c r="B9">
-        <v>0.1074332286</v>
+        <v>5.2397966999999997E-2</v>
       </c>
       <c r="C9">
         <v>0.51154147500000002</v>
@@ -13626,7 +13791,7 @@
         <v>360000</v>
       </c>
       <c r="B10">
-        <v>0.1387485565999996</v>
+        <v>6.9659636400000002E-2</v>
       </c>
       <c r="C10">
         <v>0.61277800199999999</v>
@@ -13652,7 +13817,7 @@
         <v>400000</v>
       </c>
       <c r="B11">
-        <v>0.1424903002</v>
+        <v>7.0679798799999999E-2</v>
       </c>
       <c r="C11">
         <v>0.71761708000000002</v>
@@ -13678,7 +13843,7 @@
         <v>440000</v>
       </c>
       <c r="B12">
-        <v>0.18958842279999999</v>
+        <v>9.6266851799999997E-2</v>
       </c>
       <c r="C12">
         <v>0.79879013200000004</v>
@@ -13704,7 +13869,7 @@
         <v>480000</v>
       </c>
       <c r="B13">
-        <v>0.16887409879999998</v>
+        <v>8.8256021800000001E-2</v>
       </c>
       <c r="C13">
         <v>0.84974328099999996</v>
@@ -13730,7 +13895,7 @@
         <v>520000</v>
       </c>
       <c r="B14">
-        <v>0.1775675454</v>
+        <v>8.9419928999999995E-2</v>
       </c>
       <c r="C14">
         <v>1.010577149</v>
@@ -13756,7 +13921,7 @@
         <v>560000</v>
       </c>
       <c r="B15">
-        <v>0.19662879380000001</v>
+        <v>0.106610968</v>
       </c>
       <c r="C15">
         <v>0.99092607600000004</v>
@@ -13782,7 +13947,7 @@
         <v>600000</v>
       </c>
       <c r="B16">
-        <v>0.20998510000000001</v>
+        <v>0.1235142388</v>
       </c>
       <c r="C16">
         <v>1.0929623740000001</v>
@@ -13808,7 +13973,7 @@
         <v>640000</v>
       </c>
       <c r="B17">
-        <v>0.22767334880000001</v>
+        <v>0.106770162</v>
       </c>
       <c r="C17">
         <v>1.169063336</v>
@@ -13834,7 +13999,7 @@
         <v>680000</v>
       </c>
       <c r="B18">
-        <v>0.23488430720000003</v>
+        <v>0.1170343838</v>
       </c>
       <c r="C18">
         <v>1.2166485709999999</v>
@@ -13860,7 +14025,7 @@
         <v>720000</v>
       </c>
       <c r="B19">
-        <v>0.28068779359999996</v>
+        <v>0.1242737426</v>
       </c>
       <c r="C19">
         <v>1.2863202010000001</v>
@@ -13886,7 +14051,7 @@
         <v>760000</v>
       </c>
       <c r="B20">
-        <v>0.30949674599999999</v>
+        <v>0.132093614</v>
       </c>
       <c r="C20">
         <v>1.3903118699999999</v>
@@ -13912,7 +14077,7 @@
         <v>800000</v>
       </c>
       <c r="B21">
-        <v>0.2990711392</v>
+        <v>0.140123792</v>
       </c>
       <c r="C21">
         <v>1.5233610209999999</v>
@@ -13938,7 +14103,7 @@
         <v>840000</v>
       </c>
       <c r="B22">
-        <v>0.31123064960000002</v>
+        <v>0.14802702200000001</v>
       </c>
       <c r="C22">
         <v>1.9295676239999999</v>
@@ -13964,7 +14129,7 @@
         <v>880000</v>
       </c>
       <c r="B23">
-        <v>0.39046134560000001</v>
+        <v>0.18773665519999999</v>
       </c>
       <c r="C23">
         <v>1.791648567</v>
@@ -13990,7 +14155,7 @@
         <v>920000</v>
       </c>
       <c r="B24">
-        <v>0.360120359</v>
+        <v>0.19207277619999999</v>
       </c>
       <c r="C24">
         <v>1.523563389</v>
@@ -14016,7 +14181,7 @@
         <v>960000</v>
       </c>
       <c r="B25">
-        <v>0.37019133559999962</v>
+        <v>0.1884001002</v>
       </c>
       <c r="C25">
         <v>1.5631717899999999</v>
@@ -14042,7 +14207,7 @@
         <v>1000000</v>
       </c>
       <c r="B26">
-        <v>0.39198321120000001</v>
+        <v>0.1867225018</v>
       </c>
       <c r="C26">
         <v>1.7067639489999999</v>
@@ -14059,7 +14224,7 @@
         <v>1040000</v>
       </c>
       <c r="B27">
-        <v>0.42296687339999994</v>
+        <v>0.20032769819999999</v>
       </c>
       <c r="C27">
         <v>1.9184034240000001</v>
@@ -14076,7 +14241,7 @@
         <v>1080000</v>
       </c>
       <c r="B28">
-        <v>0.42027129900000004</v>
+        <v>0.243072013</v>
       </c>
       <c r="C28">
         <v>1.924736438</v>
@@ -14093,7 +14258,7 @@
         <v>1120000</v>
       </c>
       <c r="B29">
-        <v>0.41906542360000004</v>
+        <v>0.20787637580000001</v>
       </c>
       <c r="C29">
         <v>2.0027750979999999</v>
@@ -14110,7 +14275,7 @@
         <v>1160000</v>
       </c>
       <c r="B30">
-        <v>0.45091437220000002</v>
+        <v>0.20076489380000001</v>
       </c>
       <c r="C30">
         <v>2.0990506849999999</v>
@@ -14127,7 +14292,7 @@
         <v>1200000</v>
       </c>
       <c r="B31">
-        <v>0.48583048059999995</v>
+        <v>0.24398057840000001</v>
       </c>
       <c r="C31">
         <v>2.2389227489999999</v>
@@ -14144,7 +14309,7 @@
         <v>1240000</v>
       </c>
       <c r="B32">
-        <v>0.47982699980000004</v>
+        <v>0.30910384140000002</v>
       </c>
       <c r="C32">
         <v>2.2187284919999999</v>
@@ -14161,7 +14326,7 @@
         <v>1280000</v>
       </c>
       <c r="B33">
-        <v>0.54830764380000008</v>
+        <v>0.2237285148</v>
       </c>
       <c r="C33">
         <v>2.334216917</v>
@@ -14178,7 +14343,7 @@
         <v>1320000</v>
       </c>
       <c r="B34">
-        <v>0.502830628</v>
+        <v>0.23408722979999999</v>
       </c>
       <c r="C34">
         <v>2.4145201539999999</v>
@@ -14195,7 +14360,7 @@
         <v>1360000</v>
       </c>
       <c r="B35">
-        <v>0.52944898579999999</v>
+        <v>0.24507746580000001</v>
       </c>
       <c r="C35">
         <v>2.5280007279999999</v>
@@ -14212,7 +14377,7 @@
         <v>1400000</v>
       </c>
       <c r="B36">
-        <v>0.57115632719999998</v>
+        <v>0.24850781319999901</v>
       </c>
       <c r="C36">
         <v>2.6135826670000002</v>
@@ -14229,7 +14394,7 @@
         <v>1440000</v>
       </c>
       <c r="B37">
-        <v>0.59328819980000003</v>
+        <v>0.25800294559999998</v>
       </c>
       <c r="C37">
         <v>2.7562869019999998</v>
@@ -14246,7 +14411,7 @@
         <v>1480000</v>
       </c>
       <c r="B38">
-        <v>0.75461116880000001</v>
+        <v>0.28115583360000002</v>
       </c>
       <c r="C38">
         <v>2.9215757450000002</v>
@@ -14263,7 +14428,7 @@
         <v>1520000</v>
       </c>
       <c r="B39">
-        <v>0.89594112359999989</v>
+        <v>0.29857258959999999</v>
       </c>
       <c r="C39">
         <v>2.8856869949999999</v>
@@ -14280,7 +14445,7 @@
         <v>1560000</v>
       </c>
       <c r="B40">
-        <v>1.2159810584000001</v>
+        <v>0.301151314</v>
       </c>
       <c r="C40">
         <v>3.02340886</v>
@@ -14297,7 +14462,7 @@
         <v>1600000</v>
       </c>
       <c r="B41">
-        <v>1.0321483348</v>
+        <v>0.316777906</v>
       </c>
       <c r="C41">
         <v>3.0442399390000001</v>
@@ -14314,7 +14479,7 @@
         <v>1640000</v>
       </c>
       <c r="B42">
-        <v>0.83164997080000003</v>
+        <v>0.31478474880000001</v>
       </c>
       <c r="C42">
         <v>3.2292408890000002</v>
@@ -14331,7 +14496,7 @@
         <v>1680000</v>
       </c>
       <c r="B43">
-        <v>0.86258482879999998</v>
+        <v>0.34318557959999901</v>
       </c>
       <c r="C43">
         <v>3.4731942010000001</v>
@@ -14348,7 +14513,7 @@
         <v>1720000</v>
       </c>
       <c r="B44">
-        <v>1.1890105408</v>
+        <v>0.50488663519999999</v>
       </c>
       <c r="C44">
         <v>3.3881765929999998</v>
@@ -14365,7 +14530,7 @@
         <v>1760000</v>
       </c>
       <c r="B45">
-        <v>1.3213622986</v>
+        <v>0.38424968339999999</v>
       </c>
       <c r="C45">
         <v>3.5042865339999998</v>
@@ -14382,7 +14547,7 @@
         <v>1800000</v>
       </c>
       <c r="B46">
-        <v>1.2795708938000001</v>
+        <v>0.38533105480000002</v>
       </c>
       <c r="C46">
         <v>4.0053298350000004</v>
@@ -14399,7 +14564,7 @@
         <v>1840000</v>
       </c>
       <c r="B47">
-        <v>1.1961383914000001</v>
+        <v>0.36325889280000001</v>
       </c>
       <c r="C47">
         <v>3.609645225</v>
@@ -14416,7 +14581,7 @@
         <v>1880000</v>
       </c>
       <c r="B48">
-        <v>0.99071204680000002</v>
+        <v>0.41570792400000001</v>
       </c>
       <c r="C48">
         <v>3.791508098</v>
@@ -14433,7 +14598,7 @@
         <v>1920000</v>
       </c>
       <c r="B49">
-        <v>1.0793146696</v>
+        <v>0.38312306559999998</v>
       </c>
       <c r="C49">
         <v>4.0724365970000003</v>
@@ -14450,7 +14615,7 @@
         <v>1960000</v>
       </c>
       <c r="B50">
-        <v>1.035217982</v>
+        <v>0.41751885</v>
       </c>
       <c r="C50">
         <v>3.9952341570000001</v>
@@ -14467,7 +14632,7 @@
         <v>2000000</v>
       </c>
       <c r="B51">
-        <v>1.0668421108000001</v>
+        <v>0.35566536840000001</v>
       </c>
       <c r="C51">
         <v>4.1766372570000003</v>
